--- a/demultiplex/demultiplex_results.xlsx
+++ b/demultiplex/demultiplex_results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melisakman/Google Drive/is/DataAnalysis/ProSNP/shells/demultiplex/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="19180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="25120" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plate12F" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Plate4F" sheetId="3" r:id="rId3"/>
     <sheet name="Plate4R" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1467,6 +1472,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1805,11 +1815,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1547370424"/>
-        <c:axId val="1904137192"/>
+        <c:axId val="-2010522000"/>
+        <c:axId val="-2033443888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1547370424"/>
+        <c:axId val="-2010522000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1904137192"/>
+        <c:crossAx val="-2033443888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1826,7 +1836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1904137192"/>
+        <c:axId val="-2033443888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,14 +1847,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1547370424"/>
+        <c:crossAx val="-2010522000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2218,13 +2227,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2235,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2268,7 +2277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2279,7 +2288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2290,7 +2299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2301,7 +2310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2312,7 +2321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2345,7 +2354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2356,7 +2365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2378,7 +2387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2389,7 +2398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2400,7 +2409,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2411,7 +2420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2444,7 +2453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2455,7 +2464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2466,7 +2475,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2477,7 +2486,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2488,7 +2497,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2510,7 +2519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2521,7 +2530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2532,7 +2541,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2554,7 +2563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2565,7 +2574,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2598,7 +2607,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2609,7 +2618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -2620,7 +2629,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2631,7 +2640,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -2642,7 +2651,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2653,7 +2662,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2664,7 +2673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2675,7 +2684,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2686,7 +2695,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -2697,7 +2706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2708,7 +2717,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -2719,7 +2728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -2730,7 +2739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -2741,7 +2750,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2752,7 +2761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -2785,7 +2794,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -2796,7 +2805,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2818,7 +2827,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -2829,7 +2838,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -2840,7 +2849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -2872,11 +2881,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2888,9 +2892,9 @@
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2923,7 +2927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2978,7 +2982,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3011,7 +3015,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3066,7 +3070,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3110,7 +3114,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3132,7 +3136,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3198,7 +3202,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3220,7 +3224,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3231,7 +3235,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -3275,7 +3279,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -3286,7 +3290,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -3297,7 +3301,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -3308,7 +3312,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -3319,7 +3323,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -3330,7 +3334,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -3341,7 +3345,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -3352,7 +3356,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -3374,7 +3378,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -3385,7 +3389,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -3396,7 +3400,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -3407,7 +3411,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -3418,7 +3422,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -3429,7 +3433,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -3440,7 +3444,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -3451,7 +3455,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -3473,7 +3477,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -3484,7 +3488,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -3495,7 +3499,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -3506,7 +3510,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -3517,7 +3521,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -3536,7 +3540,7 @@
         <v>259602720</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60">
         <f>AVERAGE(B1:B57)</f>
         <v>4541932.9824561402</v>
@@ -3544,11 +3548,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3556,13 +3555,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -3683,7 +3682,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>207</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>211</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>213</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -3793,7 +3792,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>225</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>229</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -3881,7 +3880,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>235</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>237</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>241</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>245</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>247</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>249</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>251</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>253</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>255</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>257</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>259</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>263</v>
       </c>
@@ -4057,7 +4056,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>271</v>
       </c>
@@ -4101,7 +4100,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>273</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>279</v>
       </c>
@@ -4145,7 +4144,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>281</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>283</v>
       </c>
@@ -4167,7 +4166,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>285</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>287</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>289</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>291</v>
       </c>
@@ -4211,7 +4210,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>293</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>295</v>
       </c>
@@ -4233,7 +4232,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>297</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>299</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>301</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>303</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>305</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>307</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>309</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>311</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>313</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>315</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>317</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>319</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>323</v>
       </c>
@@ -4387,7 +4386,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>325</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>327</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>329</v>
       </c>
@@ -4420,7 +4419,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>331</v>
       </c>
@@ -4431,7 +4430,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>333</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>335</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>339</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>343</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>345</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>347</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>351</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>353</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>357</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>359</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>361</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>363</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>365</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>114</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>154400606</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B99">
         <f>AVERAGE(B1:B96)</f>
         <v>1605621.5833333333</v>
@@ -4646,11 +4645,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4658,13 +4652,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -4675,7 +4669,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -4686,7 +4680,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -4697,7 +4691,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -4708,7 +4702,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -4719,7 +4713,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -4730,7 +4724,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -4741,7 +4735,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -4752,7 +4746,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -4763,7 +4757,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -4774,7 +4768,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -4785,7 +4779,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -4796,7 +4790,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -4807,7 +4801,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -4818,7 +4812,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -4829,7 +4823,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4840,7 +4834,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>207</v>
       </c>
@@ -4851,7 +4845,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -4862,7 +4856,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>211</v>
       </c>
@@ -4873,7 +4867,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>213</v>
       </c>
@@ -4884,7 +4878,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -4895,7 +4889,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -4906,7 +4900,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -4917,7 +4911,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -4928,7 +4922,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -4939,7 +4933,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>225</v>
       </c>
@@ -4950,7 +4944,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -4961,7 +4955,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>229</v>
       </c>
@@ -4972,7 +4966,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -4983,7 +4977,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -4994,7 +4988,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>235</v>
       </c>
@@ -5005,7 +4999,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>237</v>
       </c>
@@ -5016,7 +5010,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -5027,7 +5021,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>241</v>
       </c>
@@ -5038,7 +5032,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5049,7 +5043,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>245</v>
       </c>
@@ -5060,7 +5054,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>247</v>
       </c>
@@ -5071,7 +5065,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>249</v>
       </c>
@@ -5082,7 +5076,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>251</v>
       </c>
@@ -5093,7 +5087,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>253</v>
       </c>
@@ -5104,7 +5098,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>255</v>
       </c>
@@ -5115,7 +5109,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>257</v>
       </c>
@@ -5126,7 +5120,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>259</v>
       </c>
@@ -5137,7 +5131,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -5148,7 +5142,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>263</v>
       </c>
@@ -5159,7 +5153,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -5170,7 +5164,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -5181,7 +5175,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -5192,7 +5186,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>271</v>
       </c>
@@ -5203,7 +5197,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>273</v>
       </c>
@@ -5214,7 +5208,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -5225,7 +5219,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -5236,7 +5230,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>279</v>
       </c>
@@ -5247,7 +5241,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>281</v>
       </c>
@@ -5258,7 +5252,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>283</v>
       </c>
@@ -5269,7 +5263,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>285</v>
       </c>
@@ -5280,7 +5274,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>287</v>
       </c>
@@ -5291,7 +5285,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>289</v>
       </c>
@@ -5302,7 +5296,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>291</v>
       </c>
@@ -5313,7 +5307,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>293</v>
       </c>
@@ -5324,7 +5318,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>295</v>
       </c>
@@ -5335,7 +5329,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>297</v>
       </c>
@@ -5346,7 +5340,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>299</v>
       </c>
@@ -5357,7 +5351,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>301</v>
       </c>
@@ -5368,7 +5362,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>303</v>
       </c>
@@ -5379,7 +5373,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>305</v>
       </c>
@@ -5390,7 +5384,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>307</v>
       </c>
@@ -5401,7 +5395,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>309</v>
       </c>
@@ -5412,7 +5406,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>311</v>
       </c>
@@ -5423,7 +5417,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>313</v>
       </c>
@@ -5434,7 +5428,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>315</v>
       </c>
@@ -5445,7 +5439,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>317</v>
       </c>
@@ -5456,7 +5450,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>319</v>
       </c>
@@ -5467,7 +5461,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -5478,7 +5472,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>323</v>
       </c>
@@ -5489,7 +5483,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>325</v>
       </c>
@@ -5500,7 +5494,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>327</v>
       </c>
@@ -5511,7 +5505,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>329</v>
       </c>
@@ -5522,7 +5516,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>331</v>
       </c>
@@ -5533,7 +5527,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>333</v>
       </c>
@@ -5544,7 +5538,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>335</v>
       </c>
@@ -5555,7 +5549,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -5566,7 +5560,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>339</v>
       </c>
@@ -5577,7 +5571,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>341</v>
       </c>
@@ -5588,7 +5582,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>343</v>
       </c>
@@ -5599,7 +5593,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>345</v>
       </c>
@@ -5610,7 +5604,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>347</v>
       </c>
@@ -5621,7 +5615,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -5632,7 +5626,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>351</v>
       </c>
@@ -5643,7 +5637,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>353</v>
       </c>
@@ -5654,7 +5648,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -5665,7 +5659,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>357</v>
       </c>
@@ -5676,7 +5670,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>359</v>
       </c>
@@ -5687,7 +5681,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>361</v>
       </c>
@@ -5698,7 +5692,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>363</v>
       </c>
@@ -5709,7 +5703,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>365</v>
       </c>
@@ -5720,7 +5714,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>114</v>
       </c>
@@ -5731,7 +5725,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -5741,10 +5735,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>